--- a/T info/[T Info] 서비스 개발 일정표.xlsx
+++ b/T info/[T Info] 서비스 개발 일정표.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="1" r:id="rId1"/>
+    <sheet name="서비스 버전관리" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,87 @@
   </si>
   <si>
     <t>2021.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행사항(V1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) ratings(V1) 서비스 개발 [완료]
+(2) reviews 서비스 연동 테스트 [완료]
+(3) Jaeger Opentracing 모니터링 [완료]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) AOP(kafka producer) 서비스 개발 [완료]
+(2) kafka consumer 서비스 개발 [완료]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행사항(V2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) productpage(V1) 서비스 개발 [테스트 중]
+    - 실제 파일로 컨트롤 하는 부분은 테스트 예정
+(2) details, reviews 서비스 연동 테스트 [완료]
+(3) Jaeger Opentracing 모니터링 [완료]
+(4) Kafka Logging 서비스 적용 테스트 [완료]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) details(V1) 서비스 개발 [테스트 중]
+    - 실제 파일로 컨트롤 하는 부분은 테스트 예정
+(2) productpage 서비스 연동 테스트 [완료]
+(3) Jaeger Opentracing 모니터링 [완료]
+(4) Kafka Logging 서비스 적용 테스트 [진행 중]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- File Server(Apach)를 분리 구현
+- WebUI(NginX), productpage(SpringBoot), details(WildFly), reviews(Tomcat), Ratings(Flask) 분리 작업
+- Login Service(Apache Tomcat) 구현 - IMDG 연동 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- T-Info 서비스 기본 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) reviews(V1) 서비스 개발 [완료]
+(2) productpage, ratings 서비스 연동 테스트 [완료]
+(3) Jaeger Opentracing 모니터링 [완료]
+(4) Kafka Logging 서비스 적용 테스트 [진행 중]
+(5) 시연용으로 Istio Canary Deploy 적용(V1, V2, V3) [예정]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -391,13 +472,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +579,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -740,36 +907,44 @@
     <col min="2" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
-    <col min="8" max="8" width="38.19921875" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="8" max="8" width="48.19921875" customWidth="1"/>
+    <col min="9" max="9" width="42.69921875" customWidth="1"/>
+    <col min="10" max="10" width="38.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
@@ -786,11 +961,15 @@
         <v>15</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="87" x14ac:dyDescent="0.4">
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -805,11 +984,15 @@
         <v>15</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="87" x14ac:dyDescent="0.4">
       <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -824,11 +1007,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -845,9 +1032,11 @@
         <v>15</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -862,9 +1051,13 @@
         <v>15</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
@@ -881,9 +1074,13 @@
         <v>15</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
       <c r="C10" s="5" t="s">
         <v>30</v>
@@ -898,7 +1095,9 @@
         <v>33</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -910,4 +1109,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="4" max="4" width="88.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B4" s="25"/>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="26"/>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/T info/[T Info] 서비스 개발 일정표.xlsx
+++ b/T info/[T Info] 서비스 개발 일정표.xlsx
@@ -200,49 +200,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1) productpage(V1) 서비스 개발 [테스트 중]
-    - 실제 파일로 컨트롤 하는 부분은 테스트 예정
+    <t>V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- File Server(Apach)를 분리 구현
+- WebUI(NginX), productpage(SpringBoot), details(WildFly), reviews(Tomcat), Ratings(Flask) 분리 작업
+- Login Service(Apache Tomcat) 구현 - IMDG 연동 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- T-Info 서비스 기본 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) productpage(V1) 서비스 개발 [완료]
+    - 파일 스토리지는 HostPath 를 사용
 (2) details, reviews 서비스 연동 테스트 [완료]
 (3) Jaeger Opentracing 모니터링 [완료]
 (4) Kafka Logging 서비스 적용 테스트 [완료]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1) details(V1) 서비스 개발 [테스트 중]
-    - 실제 파일로 컨트롤 하는 부분은 테스트 예정
+    <t>(1) details(V1) 서비스 개발 [완료]
+    - 파일 스토리지는 HostPath 를 사용
 (2) productpage 서비스 연동 테스트 [완료]
-(3) Jaeger Opentracing 모니터링 [완료]
-(4) Kafka Logging 서비스 적용 테스트 [진행 중]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- File Server(Apach)를 분리 구현
-- WebUI(NginX), productpage(SpringBoot), details(WildFly), reviews(Tomcat), Ratings(Flask) 분리 작업
-- Login Service(Apache Tomcat) 구현 - IMDG 연동 포함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- T-Info 서비스 기본 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3</t>
+(3) Jaeger Opentracing 모니터링 [완료]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(1) reviews(V1) 서비스 개발 [완료]
 (2) productpage, ratings 서비스 연동 테스트 [완료]
 (3) Jaeger Opentracing 모니터링 [완료]
-(4) Kafka Logging 서비스 적용 테스트 [진행 중]
-(5) 시연용으로 Istio Canary Deploy 적용(V1, V2, V3) [예정]</t>
+(4) 시연용으로 Istio Canary Deploy 적용(V1, V2, V3) [예정]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,6 +569,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,29 +605,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,11 +614,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,7 +906,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -909,43 +916,43 @@
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="12.796875" customWidth="1"/>
     <col min="7" max="7" width="11.796875" customWidth="1"/>
-    <col min="8" max="8" width="48.19921875" customWidth="1"/>
+    <col min="8" max="8" width="51.8984375" style="29" customWidth="1"/>
     <col min="9" max="9" width="42.69921875" customWidth="1"/>
     <col min="10" max="10" width="38.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:10" ht="127.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -961,16 +968,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="19"/>
+      <c r="H4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="B5" s="15"/>
+    <row r="5" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B5" s="24"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="19"/>
+      <c r="H5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="16"/>
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="15"/>
+    <row r="6" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,16 +1014,16 @@
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1032,12 +1039,12 @@
         <v>15</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="15"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1051,14 +1058,14 @@
         <v>15</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1074,14 +1081,14 @@
         <v>15</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1095,8 +1102,8 @@
         <v>33</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="7"/>
     </row>
   </sheetData>
@@ -1138,29 +1145,29 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7"/>
     </row>

--- a/T info/[T Info] 서비스 개발 일정표.xlsx
+++ b/T info/[T Info] 서비스 개발 일정표.xlsx
@@ -169,12 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1) ratings(V1) 서비스 개발 [완료]
-(2) reviews 서비스 연동 테스트 [완료]
-(3) Jaeger Opentracing 모니터링 [완료]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) AOP(kafka producer) 서비스 개발 [완료]
 (2) kafka consumer 서비스 개발 [완료]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +235,12 @@
 (2) productpage, ratings 서비스 연동 테스트 [완료]
 (3) Jaeger Opentracing 모니터링 [완료]
 (4) 시연용으로 Istio Canary Deploy 적용(V1, V2, V3) [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) ratings(V1) 서비스 개발 [완료] 
+(2) reviews 서비스 연동 테스트 [완료]
+(3) Jaeger Opentracing 모니터링 [완료]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,6 +596,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,15 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +906,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -916,7 +916,7 @@
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="12.796875" customWidth="1"/>
     <col min="7" max="7" width="11.796875" customWidth="1"/>
-    <col min="8" max="8" width="51.8984375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="51.8984375" style="23" customWidth="1"/>
     <col min="9" max="9" width="42.69921875" customWidth="1"/>
     <col min="10" max="10" width="38.19921875" customWidth="1"/>
   </cols>
@@ -941,18 +941,18 @@
       <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="127.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -969,7 +969,7 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="10" t="s">
@@ -977,7 +977,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,7 +992,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="3" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="3" t="s">
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1044,7 +1044,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1059,13 +1059,13 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="21" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1082,13 +1082,13 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="15"/>
       <c r="J10" s="7"/>
     </row>
@@ -1135,39 +1135,39 @@
     <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="28"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7"/>
     </row>

--- a/T info/[T Info] 서비스 개발 일정표.xlsx
+++ b/T info/[T Info] 서비스 개발 일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,26 @@
     <t>(1) ratings(V1) 서비스 개발 [완료] 
 (2) reviews 서비스 연동 테스트 [완료]
 (3) Jaeger Opentracing 모니터링 [완료]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,12 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -621,6 +635,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,7 +932,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -916,43 +942,43 @@
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="12.796875" customWidth="1"/>
     <col min="7" max="7" width="11.796875" customWidth="1"/>
-    <col min="8" max="8" width="51.8984375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="51.8984375" style="21" customWidth="1"/>
     <col min="9" max="9" width="42.69921875" customWidth="1"/>
     <col min="10" max="10" width="38.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="127.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -968,16 +994,18 @@
         <v>15</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B5" s="27"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,16 +1019,18 @@
         <v>15</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B6" s="27"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,16 +1044,18 @@
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1039,12 +1071,14 @@
         <v>15</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1058,14 +1092,16 @@
         <v>15</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1081,14 +1117,16 @@
         <v>15</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1102,8 +1140,10 @@
         <v>33</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" s="7"/>
     </row>
   </sheetData>
@@ -1145,18 +1185,18 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1165,7 +1205,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="31"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
         <v>45</v>
       </c>

--- a/T info/[T Info] 서비스 개발 일정표.xlsx
+++ b/T info/[T Info] 서비스 개발 일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,16 +88,6 @@
   </si>
   <si>
     <t>Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- AOP(AspectJ, Opentracing, Kafka)
-- Logback&amp;Log4jdbc(logging)
-- JPA(Hibernate)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,12 +185,6 @@
   </si>
   <si>
     <t>V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- File Server(Apach)를 분리 구현
-- WebUI(NginX), productpage(SpringBoot), details(WildFly), reviews(Tomcat), Ratings(Flask) 분리 작업
-- Login Service(Apache Tomcat) 구현 - IMDG 연동 포함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,32 +211,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1) reviews(V1) 서비스 개발 [완료]
-(2) productpage, ratings 서비스 연동 테스트 [완료]
-(3) Jaeger Opentracing 모니터링 [완료]
-(4) 시연용으로 Istio Canary Deploy 적용(V1, V2, V3) [예정]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) ratings(V1) 서비스 개발 [완료] 
 (2) reviews 서비스 연동 테스트 [완료]
 (3) Jaeger Opentracing 모니터링 [완료]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
+    <t>권순도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이어진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손원호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 화면 개발 완료 및 서비스 바인딩 작업 [완료]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) reviews(V1) 서비스 개발 [완료]
+(2) productpage, ratings 서비스 연동 테스트 [완료]
+(3) Jaeger Opentracing 모니터링 [완료]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 인증인가 Client Service 개발 [예정]
+(2) Oauth Servcer 구축 [예정]
+(3) Oauth2 구축 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 인증인가 기능 구현 시 적용 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 기능 구현[완료]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 속도 개선을 위한 튜닝 작업 [진행 중]
+(2) 인증인가 관련 화면 개발 [예정]
+(3) 해당 서비스를 NginX에 올리기[예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) File Server 분리 시, 이미지 파일을 새로 구축 된 File Server에서 관리 [예정]
+(2) Hazelcast IMDG를 연동하여 Cache 처리 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) File Server 분리 시, 이미지 파일을 새로 구축 된 File Server에서 관리 [예정]
+(2) 해당 서비스를 Wildfly에 올리기 [예정]
+(3) Hazelcast IMDG를 연동하여 Cache 처리 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) reviews에서 ratings 서비스를 호출할 때, 요청 Input Data로 전체 review_id Array 를 넘기는 방식으로 변경(현재는 리뷰 건별로 호출) [예정]
+(2) 시연용으로 Istio Canary Deploy 적용(V1, V2, V3) [예정]
+(3) 해당 서비스를 Tomcat에 올리기 [예정]
+(4) Hazelcast IMDG를 연동하여 Cache 처리 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) reviews Service로 부터 review_id Array 값을 받아 처리하는 방식으로 변경 [예정]
+(2) Hazelcast IMDG를 연동하여 Cache 처리 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Hazelcast IMDG를 연동하여 Cache 처리 [예정]
+(2) 해당 서비스를 Tomcat에 올리기 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth(인증인가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- File Server(Apach)를 분리 구현
+- WebUI(NginX), productpage(SpringBoot), details(WildFly), reviews(Tomcat), Ratings(Flask) 분리 작업
+- Auth(인증인가) Service(Apache Tomcat) 구현 
+- IMDG(Hazelcast) 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[적용기술]
+ - AOP(AspectJ, Opentracing, Kafka)
+ - Logback&amp;Log4jdbc(logging)
+ - JPA(Hibernate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[적용기술]
+ - AOP(AspectJ, Opentracing, Kafka)
+ - Logback&amp;Log4jdbc(logging)
+ - JPA(Hibernate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[적용기술]
+ - AOP(AspectJ, Kafka)
+ - JPA(Hibernate)
+[Kafka Service]
+ - Producer 로직은 각 서비스에 AOP 적용
+ - Consumer Service 별도로 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일자(V1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일자(V2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +393,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -528,6 +620,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -535,9 +653,29 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -546,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,9 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -616,18 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,15 +761,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,229 +1115,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="12.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
     <col min="6" max="6" width="12.796875" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" customWidth="1"/>
-    <col min="8" max="8" width="51.8984375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="42.69921875" customWidth="1"/>
-    <col min="10" max="10" width="38.19921875" customWidth="1"/>
+    <col min="7" max="8" width="11.796875" customWidth="1"/>
+    <col min="9" max="9" width="51.8984375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="42.69921875" customWidth="1"/>
+    <col min="11" max="11" width="38.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="127.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="45">
+        <v>2021.01</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="46">
+        <v>2021.01</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="46">
+        <v>2021.01</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="46">
+        <v>2021.01</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4"/>
     </row>
-    <row r="4" spans="2:10" ht="127.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="14" t="s">
+    <row r="8" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="46">
+        <v>2021.01</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="46">
+        <v>2021.01</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="47">
+        <v>2021.01</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="2:11" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="J11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="6"/>
     </row>
-    <row r="5" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B5" s="25"/>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="25"/>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="7"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1163,7 +1417,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1174,42 +1428,44 @@
   <sheetData>
     <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="4" spans="2:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B4" s="28"/>
+    <row r="4" spans="2:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B4" s="23"/>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="29"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/T info/[T Info] 서비스 개발 일정표.xlsx
+++ b/T info/[T Info] 서비스 개발 일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,12 +253,6 @@
   </si>
   <si>
     <t>참고 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 인증인가 Client Service 개발 [예정]
-(2) Oauth Servcer 구축 [예정]
-(3) Oauth2 구축 [예정]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,6 +341,19 @@
   </si>
   <si>
     <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 인증인가 Client Service 개발 [예정]
+(2) Oauth Server 구축 [예정]
+(3) Oauth2 구축 [예정]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[적용기술]
+ - AOP(AspectJ, Opentracing, Kafka)
+ - Logback&amp;Log4jdbc(logging)
+ - JPA(Hibernate)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,6 +758,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,81 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1152,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>31</v>
@@ -1168,7 +1175,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="127.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1183,22 +1190,22 @@
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="42">
         <v>2021.01</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>58</v>
+      <c r="J4" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1213,22 +1220,22 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="43">
         <v>2021.01</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>59</v>
+      <c r="J5" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="2:11" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1243,22 +1250,22 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="43">
         <v>2021.01</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>60</v>
+      <c r="J6" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1273,20 +1280,20 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="43">
         <v>2021.01</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>57</v>
+      <c r="J7" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="2:11" ht="90.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1301,20 +1308,20 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="43">
         <v>2021.01</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>61</v>
+      <c r="J8" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1329,81 +1336,81 @@
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="43">
         <v>2021.01</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>62</v>
+      <c r="J9" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="44">
         <v>2021.01</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="30" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="J10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:11" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="34" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="35" t="s">
-        <v>54</v>
+      <c r="J11" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,7 +1424,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1439,7 +1446,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1450,21 +1457,21 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B4" s="23"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="24"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
